--- a/data/trans_orig/P29A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41895E09-4B80-43E5-9D1E-332B58324696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68492027-A685-441E-AC2A-88D026380E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E13FD142-9A76-487C-800F-574392D1B63E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDCC421-DF4B-444B-9963-400CFCBFBFE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="484">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,1051 +77,1039 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
@@ -1130,235 +1118,235 @@
     <t>81,74%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>74,75%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>77,38%</t>
@@ -1367,31 +1355,31 @@
     <t>74,09%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>19,64%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>25,91%</t>
@@ -1400,109 +1388,109 @@
     <t>85,79%</t>
   </si>
   <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>83,17%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0FB7C9-2086-4C16-8EA3-E58BAF18F204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6B0A22-3BB2-4F27-B31D-4B3D10C8DA6C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2691,10 +2679,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2697,13 @@
         <v>5473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2724,13 +2712,13 @@
         <v>4939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2739,13 +2727,13 @@
         <v>10411</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2789,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2813,13 +2801,13 @@
         <v>192479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2828,13 +2816,13 @@
         <v>42561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2843,13 +2831,13 @@
         <v>235040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2852,13 @@
         <v>4416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2879,13 +2867,13 @@
         <v>2232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2894,13 +2882,13 @@
         <v>6648</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2962,7 @@
         <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
         <v>805</v>
@@ -2983,13 +2971,13 @@
         <v>823855</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>2550</v>
@@ -3001,7 +2989,7 @@
         <v>95</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>130</v>
@@ -3022,10 +3010,10 @@
         <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -3034,13 +3022,13 @@
         <v>52747</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -3049,13 +3037,13 @@
         <v>113616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CB52C-3074-4987-8578-3AC1838E64F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F94F6-B457-4ECE-9D8A-34548F720EBE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3412,13 +3400,13 @@
         <v>414722</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3427,13 +3415,13 @@
         <v>183193</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>579</v>
@@ -3442,13 +3430,13 @@
         <v>597916</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3451,13 @@
         <v>19704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3478,13 +3466,13 @@
         <v>18043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3493,13 +3481,13 @@
         <v>37746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3555,13 @@
         <v>389425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -3582,13 +3570,13 @@
         <v>200359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3597,13 +3585,13 @@
         <v>589783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3606,13 @@
         <v>10275</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3633,13 +3621,13 @@
         <v>23398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -3648,13 +3636,13 @@
         <v>33673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3710,13 @@
         <v>353309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3737,13 +3725,13 @@
         <v>186650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3752,13 +3740,13 @@
         <v>539959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3761,13 @@
         <v>7486</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3788,13 +3776,13 @@
         <v>14765</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -3803,13 +3791,13 @@
         <v>22250</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4008,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4038,7 +4026,7 @@
         <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4068,7 +4056,7 @@
         <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4071,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4098,13 +4086,13 @@
         <v>11384</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4113,13 +4101,13 @@
         <v>12362</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4175,13 @@
         <v>1837828</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>822</v>
@@ -4202,13 +4190,13 @@
         <v>894904</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>2552</v>
@@ -4217,13 +4205,13 @@
         <v>2732732</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4226,13 @@
         <v>54536</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4253,13 +4241,13 @@
         <v>88834</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -4268,13 +4256,13 @@
         <v>143370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753A1DA-65C4-4DA5-928B-936E60323203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BF3E5D-97B7-4295-9BF3-6D9DB5B57739}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4369,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4476,13 +4464,13 @@
         <v>238129</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -4491,13 +4479,13 @@
         <v>162059</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>391</v>
@@ -4506,13 +4494,13 @@
         <v>400187</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,10 +4515,10 @@
         <v>6472</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>268</v>
@@ -4664,10 +4652,10 @@
         <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4670,13 @@
         <v>9392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4697,13 +4685,13 @@
         <v>2842</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4712,13 +4700,13 @@
         <v>12234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,16 +4771,16 @@
         <v>392</v>
       </c>
       <c r="D10" s="7">
-        <v>409034</v>
+        <v>409035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -4804,10 +4792,10 @@
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>626</v>
@@ -4816,13 +4804,13 @@
         <v>642503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4825,13 @@
         <v>2924</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4855,10 +4843,10 @@
         <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -4867,13 +4855,13 @@
         <v>10640</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4873,7 @@
         <v>395</v>
       </c>
       <c r="D12" s="7">
-        <v>411958</v>
+        <v>411959</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4941,13 +4929,13 @@
         <v>370178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -4956,13 +4944,13 @@
         <v>242127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -4971,13 +4959,13 @@
         <v>612305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4980,13 @@
         <v>2037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -5007,13 +4995,13 @@
         <v>9438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5022,10 +5010,10 @@
         <v>11475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>320</v>
@@ -5102,7 +5090,7 @@
         <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5117,7 +5105,7 @@
         <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -5129,10 +5117,10 @@
         <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5135,13 @@
         <v>1056</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5162,13 +5150,13 @@
         <v>2194</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -5177,13 +5165,13 @@
         <v>3250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5227,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5251,13 +5239,13 @@
         <v>252200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -5266,13 +5254,13 @@
         <v>95419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5281,13 +5269,13 @@
         <v>347619</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5290,13 @@
         <v>2635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5317,13 +5305,13 @@
         <v>2340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5332,13 +5320,13 @@
         <v>4975</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,10 +5397,10 @@
         <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -5421,13 +5409,13 @@
         <v>1071986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>2803</v>
@@ -5436,13 +5424,13 @@
         <v>2949993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5445,13 @@
         <v>24517</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5472,13 +5460,13 @@
         <v>31194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>353</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -5487,13 +5475,13 @@
         <v>55711</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8FBB14-044B-4080-8052-56F0E8A14530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EA0791-56DE-48E4-B254-6CD8D05B1C63}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5588,7 +5576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5695,13 +5683,13 @@
         <v>161216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5710,13 +5698,13 @@
         <v>112830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -5725,13 +5713,13 @@
         <v>274046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5734,13 @@
         <v>36017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -5761,13 +5749,13 @@
         <v>47636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5776,13 +5764,13 @@
         <v>83653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5838,13 @@
         <v>227391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5865,13 +5853,13 @@
         <v>151872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5880,13 +5868,13 @@
         <v>379263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5889,13 @@
         <v>45404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -5916,13 +5904,13 @@
         <v>82701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -5931,13 +5919,13 @@
         <v>128105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,16 +5990,16 @@
         <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>288623</v>
+        <v>288622</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
@@ -6020,13 +6008,13 @@
         <v>160196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -6035,13 +6023,13 @@
         <v>448820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6044,13 @@
         <v>63123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -6071,13 +6059,13 @@
         <v>75524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>164</v>
@@ -6086,13 +6074,13 @@
         <v>138646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,7 +6092,7 @@
         <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>351746</v>
+        <v>351745</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6160,13 +6148,13 @@
         <v>353848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -6175,13 +6163,13 @@
         <v>204931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
@@ -6190,13 +6178,13 @@
         <v>558779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6199,13 @@
         <v>106905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6226,13 +6214,13 @@
         <v>89872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -6241,13 +6229,13 @@
         <v>196777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6303,13 @@
         <v>279684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -6330,13 +6318,13 @@
         <v>144479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
@@ -6345,13 +6333,13 @@
         <v>424164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6354,13 @@
         <v>63927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -6381,13 +6369,13 @@
         <v>60064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -6396,13 +6384,13 @@
         <v>123990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6446,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6470,13 +6458,13 @@
         <v>307941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -6485,13 +6473,13 @@
         <v>223476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M19" s="7">
         <v>659</v>
@@ -6500,13 +6488,13 @@
         <v>531417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6509,13 @@
         <v>51027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -6536,13 +6524,13 @@
         <v>56539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -6551,13 +6539,13 @@
         <v>107566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6613,13 @@
         <v>1618703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>1206</v>
@@ -6640,13 +6628,13 @@
         <v>997784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>2794</v>
@@ -6655,13 +6643,13 @@
         <v>2616487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6664,13 @@
         <v>366403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -6691,13 +6679,13 @@
         <v>412336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>809</v>
@@ -6706,13 +6694,13 @@
         <v>778738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P29A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68492027-A685-441E-AC2A-88D026380E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C639DCF1-77D2-4244-AF74-39925FFFE85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDCC421-DF4B-444B-9963-400CFCBFBFE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{330817FB-4680-41D8-93AC-924C0CCBFBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>93,14%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,796 +311,820 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>93,36%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>86,68%</t>
   </si>
   <si>
     <t>95,81%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -1109,7 +1133,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
@@ -1902,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6B0A22-3BB2-4F27-B31D-4B3D10C8DA6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D50A450-C6CE-4C2F-8632-8DF946A3EC48}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2667,7 +2691,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -2676,13 +2700,13 @@
         <v>238180</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2721,13 @@
         <v>5473</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2712,13 +2736,13 @@
         <v>4939</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -2727,13 +2751,13 @@
         <v>10411</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2813,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2801,13 +2825,13 @@
         <v>192479</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2816,13 +2840,13 @@
         <v>42561</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2831,13 +2855,13 @@
         <v>235040</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2876,13 @@
         <v>4416</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2867,13 +2891,13 @@
         <v>2232</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2882,13 +2906,13 @@
         <v>6648</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2986,7 @@
         <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>805</v>
@@ -2971,13 +2995,13 @@
         <v>823855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>2550</v>
@@ -2986,13 +3010,13 @@
         <v>2599950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3031,13 @@
         <v>60869</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -3022,13 +3046,13 @@
         <v>52747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -3037,13 +3061,13 @@
         <v>113616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3123,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518F94F6-B457-4ECE-9D8A-34548F720EBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5C95F3-E95D-4DE9-9B7B-C70FE19AB5E5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3138,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3245,13 +3269,13 @@
         <v>257051</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -3260,13 +3284,13 @@
         <v>166446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>415</v>
@@ -3275,13 +3299,13 @@
         <v>423498</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3320,13 @@
         <v>10931</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3311,13 +3335,13 @@
         <v>14103</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -3326,13 +3350,13 @@
         <v>25033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3424,13 @@
         <v>414722</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3415,13 +3439,13 @@
         <v>183193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>579</v>
@@ -3430,13 +3454,13 @@
         <v>597916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3475,13 @@
         <v>19704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3466,13 +3490,13 @@
         <v>18043</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3481,13 +3505,13 @@
         <v>37746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3579,13 @@
         <v>389425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -3570,13 +3594,13 @@
         <v>200359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3585,13 +3609,13 @@
         <v>589783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3630,13 @@
         <v>10275</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -3621,13 +3645,13 @@
         <v>23398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -3636,13 +3660,13 @@
         <v>33673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3734,13 @@
         <v>353309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3725,13 +3749,13 @@
         <v>186650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3740,13 +3764,13 @@
         <v>539959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3785,13 @@
         <v>7486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3776,13 +3800,13 @@
         <v>14765</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -3791,13 +3815,13 @@
         <v>22250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3889,13 @@
         <v>205679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3880,13 +3904,13 @@
         <v>94541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -3895,13 +3919,13 @@
         <v>300220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3940,13 @@
         <v>5164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3931,13 +3955,13 @@
         <v>7141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3946,13 +3970,13 @@
         <v>12305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4020,13 +4044,13 @@
         <v>217641</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4035,13 +4059,13 @@
         <v>63715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -4050,13 +4074,13 @@
         <v>281355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4095,13 @@
         <v>977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4086,13 +4110,13 @@
         <v>11384</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4101,13 +4125,13 @@
         <v>12362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4199,13 @@
         <v>1837828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>822</v>
@@ -4190,13 +4214,13 @@
         <v>894904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>2552</v>
@@ -4205,13 +4229,13 @@
         <v>2732732</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4250,13 @@
         <v>54536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -4241,13 +4265,13 @@
         <v>88834</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -4256,13 +4280,13 @@
         <v>143370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,7 +4342,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BF3E5D-97B7-4295-9BF3-6D9DB5B57739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CCD8F-6FA9-42E8-BC42-9BE79935C4FA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,13 +4488,13 @@
         <v>238129</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -4479,13 +4503,13 @@
         <v>162059</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>391</v>
@@ -4494,13 +4518,13 @@
         <v>400187</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,10 +4539,10 @@
         <v>6472</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>268</v>
@@ -4771,13 +4795,13 @@
         <v>392</v>
       </c>
       <c r="D10" s="7">
-        <v>409035</v>
+        <v>409034</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>294</v>
@@ -4807,10 +4831,10 @@
         <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4849,13 @@
         <v>2924</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4843,10 +4867,10 @@
         <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -4855,13 +4879,13 @@
         <v>10640</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4897,7 @@
         <v>395</v>
       </c>
       <c r="D12" s="7">
-        <v>411959</v>
+        <v>411958</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4929,13 +4953,13 @@
         <v>370178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -4944,13 +4968,13 @@
         <v>242127</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -4959,13 +4983,13 @@
         <v>612305</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5004,13 @@
         <v>2037</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4995,13 +5019,13 @@
         <v>9438</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5010,10 +5034,10 @@
         <v>11475</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>320</v>
@@ -5090,7 +5114,7 @@
         <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5105,7 +5129,7 @@
         <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -5117,10 +5141,10 @@
         <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,7 +5162,7 @@
         <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>328</v>
@@ -5153,7 +5177,7 @@
         <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>330</v>
@@ -5168,10 +5192,10 @@
         <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5251,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5242,10 +5266,10 @@
         <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -5254,13 +5278,13 @@
         <v>95419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5269,13 +5293,13 @@
         <v>347619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5314,13 @@
         <v>2635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5305,13 +5329,13 @@
         <v>2340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5320,13 +5344,13 @@
         <v>4975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,10 +5421,10 @@
         <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -5409,13 +5433,13 @@
         <v>1071986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>2803</v>
@@ -5424,13 +5448,13 @@
         <v>2949993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,10 +5472,10 @@
         <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5460,13 +5484,13 @@
         <v>31194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -5475,13 +5499,13 @@
         <v>55711</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,7 +5561,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EA0791-56DE-48E4-B254-6CD8D05B1C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32543A88-6F9B-4456-8B41-CA577A0DE493}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5576,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5683,13 +5707,13 @@
         <v>161216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5698,13 +5722,13 @@
         <v>112830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -5713,13 +5737,13 @@
         <v>274046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5758,13 @@
         <v>36017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -5749,13 +5773,13 @@
         <v>47636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5764,13 +5788,13 @@
         <v>83653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5862,13 @@
         <v>227391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5853,13 +5877,13 @@
         <v>151872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5868,13 +5892,13 @@
         <v>379263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5913,13 @@
         <v>45404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -5904,13 +5928,13 @@
         <v>82701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -5919,13 +5943,13 @@
         <v>128105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +6017,13 @@
         <v>288622</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
@@ -6008,13 +6032,13 @@
         <v>160196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -6023,13 +6047,13 @@
         <v>448820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6068,13 @@
         <v>63123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -6059,13 +6083,13 @@
         <v>75524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>164</v>
@@ -6074,13 +6098,13 @@
         <v>138646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6172,13 @@
         <v>353848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -6163,13 +6187,13 @@
         <v>204931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
@@ -6178,13 +6202,13 @@
         <v>558779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6223,13 @@
         <v>106905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6214,13 +6238,13 @@
         <v>89872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -6229,13 +6253,13 @@
         <v>196777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6327,13 @@
         <v>279684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -6318,13 +6342,13 @@
         <v>144479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
@@ -6333,13 +6357,13 @@
         <v>424164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6378,13 @@
         <v>63927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -6369,13 +6393,13 @@
         <v>60064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -6384,13 +6408,13 @@
         <v>123990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6470,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6458,13 +6482,13 @@
         <v>307941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -6473,13 +6497,13 @@
         <v>223476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M19" s="7">
         <v>659</v>
@@ -6488,13 +6512,13 @@
         <v>531417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6533,13 @@
         <v>51027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -6524,13 +6548,13 @@
         <v>56539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -6539,13 +6563,13 @@
         <v>107566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6637,13 @@
         <v>1618703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>1206</v>
@@ -6628,13 +6652,13 @@
         <v>997784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>2794</v>
@@ -6643,13 +6667,13 @@
         <v>2616487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6688,13 @@
         <v>366403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -6679,13 +6703,13 @@
         <v>412336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>809</v>
@@ -6694,13 +6718,13 @@
         <v>778738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6780,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C639DCF1-77D2-4244-AF74-39925FFFE85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3758A48A-81AB-4706-859D-68515122F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{330817FB-4680-41D8-93AC-924C0CCBFBB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88F5EF17-5603-483F-B1C6-7455806BE53F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1384 +137,1402 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 97,69%)</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D50A450-C6CE-4C2F-8632-8DF946A3EC48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C4E86-F9F2-49BB-B5B3-68AD5031B752}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2095,10 +2113,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="D5" s="7">
-        <v>11530</v>
+        <v>224881</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2110,10 +2128,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="I5" s="7">
-        <v>14337</v>
+        <v>295409</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2125,10 +2143,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>26</v>
+        <v>535</v>
       </c>
       <c r="N5" s="7">
-        <v>25867</v>
+        <v>520290</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2146,10 +2164,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>278</v>
+        <v>494</v>
       </c>
       <c r="D6" s="7">
-        <v>275744</v>
+        <v>489095</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2161,10 +2179,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>193</v>
+        <v>486</v>
       </c>
       <c r="I6" s="7">
-        <v>183437</v>
+        <v>464509</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2176,10 +2194,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>471</v>
+        <v>980</v>
       </c>
       <c r="N6" s="7">
-        <v>459181</v>
+        <v>953604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2232,7 +2250,7 @@
         <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>679259</v>
+        <v>679260</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2250,10 +2268,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7">
-        <v>15650</v>
+        <v>249258</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2265,10 +2283,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="I8" s="7">
-        <v>11215</v>
+        <v>418433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2280,10 +2298,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>631</v>
       </c>
       <c r="N8" s="7">
-        <v>26865</v>
+        <v>667690</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2301,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>474</v>
+        <v>692</v>
       </c>
       <c r="D9" s="7">
-        <v>488883</v>
+        <v>722491</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2316,10 +2334,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>203</v>
+        <v>590</v>
       </c>
       <c r="I9" s="7">
-        <v>217241</v>
+        <v>624459</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2331,10 +2349,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>677</v>
+        <v>1282</v>
       </c>
       <c r="N9" s="7">
-        <v>706124</v>
+        <v>1346950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2387,7 +2405,7 @@
         <v>571</v>
       </c>
       <c r="N10" s="7">
-        <v>584819</v>
+        <v>584820</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2405,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>16211</v>
+        <v>253088</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2420,10 +2438,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>451</v>
       </c>
       <c r="I11" s="7">
-        <v>10428</v>
+        <v>475902</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2435,10 +2453,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>686</v>
       </c>
       <c r="N11" s="7">
-        <v>26640</v>
+        <v>728990</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2456,10 +2474,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>386</v>
+        <v>606</v>
       </c>
       <c r="D12" s="7">
-        <v>394620</v>
+        <v>631497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2471,10 +2489,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>210</v>
+        <v>651</v>
       </c>
       <c r="I12" s="7">
-        <v>216839</v>
+        <v>682313</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2486,10 +2504,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>596</v>
+        <v>1257</v>
       </c>
       <c r="N12" s="7">
-        <v>611459</v>
+        <v>1313810</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2560,10 +2578,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>7589</v>
+        <v>213242</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2575,10 +2593,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="I14" s="7">
-        <v>9596</v>
+        <v>380036</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2590,10 +2608,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>17185</v>
+        <v>593278</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2611,10 +2629,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="D15" s="7">
-        <v>306659</v>
+        <v>512312</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2626,10 +2644,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="I15" s="7">
-        <v>139863</v>
+        <v>510303</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2641,10 +2659,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>422</v>
+        <v>974</v>
       </c>
       <c r="N15" s="7">
-        <v>446522</v>
+        <v>1022615</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2667,7 +2685,7 @@
         <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>168689</v>
+        <v>168690</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2682,7 +2700,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>69489</v>
+        <v>69490</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2691,7 +2709,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -2700,13 +2718,13 @@
         <v>238180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,49 +2733,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="D17" s="7">
-        <v>5473</v>
+        <v>212091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>327</v>
       </c>
       <c r="I17" s="7">
-        <v>4939</v>
+        <v>333489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>542</v>
       </c>
       <c r="N17" s="7">
-        <v>10411</v>
+        <v>545580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,10 +2784,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>177</v>
+        <v>386</v>
       </c>
       <c r="D18" s="7">
-        <v>174162</v>
+        <v>380781</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2781,10 +2799,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>74428</v>
+        <v>402979</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2796,10 +2814,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>250</v>
+        <v>781</v>
       </c>
       <c r="N18" s="7">
-        <v>248591</v>
+        <v>783760</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2813,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2843,13 @@
         <v>192479</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2840,13 +2858,13 @@
         <v>42561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -2855,13 +2873,13 @@
         <v>235040</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,49 +2888,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>321</v>
       </c>
       <c r="D20" s="7">
-        <v>4416</v>
+        <v>303948</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>618</v>
       </c>
       <c r="I20" s="7">
-        <v>2232</v>
+        <v>633156</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>939</v>
       </c>
       <c r="N20" s="7">
-        <v>6648</v>
+        <v>937104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>201</v>
+        <v>517</v>
       </c>
       <c r="D21" s="7">
-        <v>196895</v>
+        <v>496427</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2936,10 +2954,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>44</v>
+        <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>44793</v>
+        <v>675717</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2951,10 +2969,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>1177</v>
       </c>
       <c r="N21" s="7">
-        <v>241688</v>
+        <v>1172144</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2980,13 +2998,13 @@
         <v>1776095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>805</v>
@@ -2995,13 +3013,13 @@
         <v>823855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2550</v>
@@ -3010,13 +3028,13 @@
         <v>2599950</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,49 +3043,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>59</v>
+        <v>1427</v>
       </c>
       <c r="D23" s="7">
-        <v>60869</v>
+        <v>1456509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>52</v>
+        <v>2474</v>
       </c>
       <c r="I23" s="7">
-        <v>52747</v>
+        <v>2536424</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>111</v>
+        <v>3901</v>
       </c>
       <c r="N23" s="7">
-        <v>113616</v>
+        <v>3992932</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,10 +3094,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1804</v>
+        <v>3172</v>
       </c>
       <c r="D24" s="7">
-        <v>1836964</v>
+        <v>3232604</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3091,10 +3109,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>857</v>
+        <v>3279</v>
       </c>
       <c r="I24" s="7">
-        <v>876602</v>
+        <v>3360279</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3106,10 +3124,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2661</v>
+        <v>6451</v>
       </c>
       <c r="N24" s="7">
-        <v>2713566</v>
+        <v>6592882</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3123,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5C95F3-E95D-4DE9-9B7B-C70FE19AB5E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB9BB36-1C1C-445A-931D-624640950F2F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3266,16 +3284,16 @@
         <v>254</v>
       </c>
       <c r="D4" s="7">
-        <v>257051</v>
+        <v>257052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -3284,13 +3302,13 @@
         <v>166446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>415</v>
@@ -3299,13 +3317,13 @@
         <v>423498</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,49 +3332,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>10931</v>
+        <v>183217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="I5" s="7">
-        <v>14103</v>
+        <v>259816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>434</v>
       </c>
       <c r="N5" s="7">
-        <v>25033</v>
+        <v>443033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,10 +3383,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="D6" s="7">
-        <v>267982</v>
+        <v>440269</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3380,10 +3398,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>175</v>
+        <v>417</v>
       </c>
       <c r="I6" s="7">
-        <v>180549</v>
+        <v>426262</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3395,10 +3413,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>440</v>
+        <v>849</v>
       </c>
       <c r="N6" s="7">
-        <v>448531</v>
+        <v>866531</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3424,13 +3442,13 @@
         <v>414722</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3439,13 +3457,13 @@
         <v>183193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>579</v>
@@ -3454,13 +3472,13 @@
         <v>597916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,49 +3487,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7">
-        <v>19704</v>
+        <v>238994</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="I8" s="7">
-        <v>18043</v>
+        <v>413862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>615</v>
       </c>
       <c r="N8" s="7">
-        <v>37746</v>
+        <v>652856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,10 +3538,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>425</v>
+        <v>636</v>
       </c>
       <c r="D9" s="7">
-        <v>434426</v>
+        <v>653716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3535,10 +3553,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>558</v>
       </c>
       <c r="I9" s="7">
-        <v>201236</v>
+        <v>597055</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3550,10 +3568,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>615</v>
+        <v>1194</v>
       </c>
       <c r="N9" s="7">
-        <v>635662</v>
+        <v>1250772</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3579,43 +3597,43 @@
         <v>389425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
       </c>
       <c r="I10" s="7">
-        <v>200359</v>
+        <v>200358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
       </c>
       <c r="N10" s="7">
-        <v>589783</v>
+        <v>589784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,49 +3642,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7">
-        <v>10275</v>
+        <v>263090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="I11" s="7">
-        <v>23398</v>
+        <v>488821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>33673</v>
+        <v>751910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>382</v>
+        <v>622</v>
       </c>
       <c r="D12" s="7">
-        <v>399700</v>
+        <v>652515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3690,10 +3708,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>205</v>
+        <v>647</v>
       </c>
       <c r="I12" s="7">
-        <v>223757</v>
+        <v>689179</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3705,10 +3723,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>587</v>
+        <v>1269</v>
       </c>
       <c r="N12" s="7">
-        <v>623456</v>
+        <v>1341694</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3734,13 +3752,13 @@
         <v>353309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3749,13 +3767,13 @@
         <v>186650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3764,13 +3782,13 @@
         <v>539959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,49 +3797,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>7486</v>
+        <v>227994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="I14" s="7">
-        <v>14765</v>
+        <v>414449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>564</v>
       </c>
       <c r="N14" s="7">
-        <v>22250</v>
+        <v>642443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,10 +3848,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>323</v>
+        <v>518</v>
       </c>
       <c r="D15" s="7">
-        <v>360795</v>
+        <v>581303</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3845,10 +3863,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>526</v>
       </c>
       <c r="I15" s="7">
-        <v>201415</v>
+        <v>601099</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3860,10 +3878,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>500</v>
+        <v>1044</v>
       </c>
       <c r="N15" s="7">
-        <v>562209</v>
+        <v>1182402</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3889,28 +3907,28 @@
         <v>205679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
       </c>
       <c r="I16" s="7">
-        <v>94541</v>
+        <v>94540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -3919,13 +3937,13 @@
         <v>300220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,49 +3952,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="D17" s="7">
-        <v>5164</v>
+        <v>202803</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>314</v>
       </c>
       <c r="I17" s="7">
-        <v>7141</v>
+        <v>342748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>501</v>
       </c>
       <c r="N17" s="7">
-        <v>12305</v>
+        <v>545550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>210843</v>
+        <v>408482</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4000,10 +4018,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>91</v>
+        <v>398</v>
       </c>
       <c r="I18" s="7">
-        <v>101682</v>
+        <v>437288</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4015,10 +4033,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>283</v>
+        <v>772</v>
       </c>
       <c r="N18" s="7">
-        <v>312525</v>
+        <v>845770</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4032,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4044,13 +4062,13 @@
         <v>217641</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4059,28 +4077,28 @@
         <v>63715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
       </c>
       <c r="N19" s="7">
-        <v>281355</v>
+        <v>281356</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,49 +4107,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7">
-        <v>977</v>
+        <v>320650</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>631</v>
       </c>
       <c r="I20" s="7">
-        <v>11384</v>
+        <v>671542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>923</v>
       </c>
       <c r="N20" s="7">
-        <v>12362</v>
+        <v>992192</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,10 +4158,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>195</v>
+        <v>486</v>
       </c>
       <c r="D21" s="7">
-        <v>218618</v>
+        <v>538291</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4155,10 +4173,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>67</v>
+        <v>687</v>
       </c>
       <c r="I21" s="7">
-        <v>75099</v>
+        <v>735257</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4170,10 +4188,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>262</v>
+        <v>1173</v>
       </c>
       <c r="N21" s="7">
-        <v>293717</v>
+        <v>1273548</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4199,13 +4217,13 @@
         <v>1837828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>822</v>
@@ -4214,13 +4232,13 @@
         <v>894904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>2552</v>
@@ -4229,13 +4247,13 @@
         <v>2732732</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,49 +4262,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>52</v>
+        <v>1338</v>
       </c>
       <c r="D23" s="7">
-        <v>54536</v>
+        <v>1436748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
-        <v>83</v>
+        <v>2411</v>
       </c>
       <c r="I23" s="7">
-        <v>88834</v>
+        <v>2591237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
-        <v>135</v>
+        <v>3749</v>
       </c>
       <c r="N23" s="7">
-        <v>143370</v>
+        <v>4027984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,10 +4313,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1782</v>
+        <v>3068</v>
       </c>
       <c r="D24" s="7">
-        <v>1892364</v>
+        <v>3274576</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4310,10 +4328,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>905</v>
+        <v>3233</v>
       </c>
       <c r="I24" s="7">
-        <v>983738</v>
+        <v>3486141</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4325,10 +4343,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2687</v>
+        <v>6301</v>
       </c>
       <c r="N24" s="7">
-        <v>2876102</v>
+        <v>6760716</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4342,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CCD8F-6FA9-42E8-BC42-9BE79935C4FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E29B32-3709-49A6-98B5-2643038C9C2E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4485,16 +4503,16 @@
         <v>225</v>
       </c>
       <c r="D4" s="7">
-        <v>238129</v>
+        <v>238128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -4503,13 +4521,13 @@
         <v>162059</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>391</v>
@@ -4518,13 +4536,13 @@
         <v>400187</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>6472</v>
+        <v>167605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="I5" s="7">
-        <v>6664</v>
+        <v>229925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>389</v>
       </c>
       <c r="N5" s="7">
-        <v>13137</v>
+        <v>397530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>231</v>
+        <v>380</v>
       </c>
       <c r="D6" s="7">
-        <v>244601</v>
+        <v>405733</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>400</v>
       </c>
       <c r="I6" s="7">
-        <v>168723</v>
+        <v>391984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>404</v>
+        <v>780</v>
       </c>
       <c r="N6" s="7">
-        <v>413324</v>
+        <v>797717</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4643,28 +4661,28 @@
         <v>344192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
       </c>
       <c r="I7" s="7">
-        <v>217646</v>
+        <v>217647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>554</v>
@@ -4673,13 +4691,13 @@
         <v>561839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7">
-        <v>9392</v>
+        <v>233301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="I8" s="7">
-        <v>2842</v>
+        <v>338035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>571</v>
       </c>
       <c r="N8" s="7">
-        <v>12234</v>
+        <v>571337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>341</v>
+        <v>554</v>
       </c>
       <c r="D9" s="7">
-        <v>353584</v>
+        <v>577493</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="I9" s="7">
-        <v>220488</v>
+        <v>555682</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>566</v>
+        <v>1125</v>
       </c>
       <c r="N9" s="7">
-        <v>574073</v>
+        <v>1133176</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4798,28 +4816,28 @@
         <v>409034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>233468</v>
+        <v>233469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>626</v>
@@ -4828,13 +4846,13 @@
         <v>642503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>2924</v>
+        <v>239779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>421</v>
       </c>
       <c r="I11" s="7">
-        <v>7716</v>
+        <v>417117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>10640</v>
+        <v>656896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="D12" s="7">
-        <v>411958</v>
+        <v>648813</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4909,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>241</v>
+        <v>655</v>
       </c>
       <c r="I12" s="7">
-        <v>241184</v>
+        <v>650586</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4924,10 +4942,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>636</v>
+        <v>1276</v>
       </c>
       <c r="N12" s="7">
-        <v>653143</v>
+        <v>1299399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4953,13 +4971,13 @@
         <v>370178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -4968,13 +4986,13 @@
         <v>242127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -4983,13 +5001,13 @@
         <v>612305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>2037</v>
+        <v>257423</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>9438</v>
+        <v>390061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="N14" s="7">
-        <v>11475</v>
+        <v>647484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>565</v>
       </c>
       <c r="D15" s="7">
-        <v>372215</v>
+        <v>627601</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5064,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>586</v>
       </c>
       <c r="I15" s="7">
-        <v>251565</v>
+        <v>632188</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5079,10 +5097,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>564</v>
+        <v>1151</v>
       </c>
       <c r="N15" s="7">
-        <v>623780</v>
+        <v>1259789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5105,16 +5123,16 @@
         <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>264274</v>
+        <v>264273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5123,13 +5141,13 @@
         <v>121266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -5138,13 +5156,13 @@
         <v>385540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,49 +5171,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="D17" s="7">
-        <v>1056</v>
+        <v>191270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="I17" s="7">
-        <v>2194</v>
+        <v>364846</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>489</v>
       </c>
       <c r="N17" s="7">
-        <v>3250</v>
+        <v>556115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,10 +5222,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="D18" s="7">
-        <v>265330</v>
+        <v>455543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5219,10 +5237,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>107</v>
+        <v>424</v>
       </c>
       <c r="I18" s="7">
-        <v>123460</v>
+        <v>486112</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5234,10 +5252,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>342</v>
+        <v>828</v>
       </c>
       <c r="N18" s="7">
-        <v>388790</v>
+        <v>941655</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5251,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5263,13 +5281,13 @@
         <v>252200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -5278,13 +5296,13 @@
         <v>95419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5293,13 +5311,13 @@
         <v>347619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,49 +5326,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="D20" s="7">
-        <v>2635</v>
+        <v>320162</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>571</v>
       </c>
       <c r="I20" s="7">
-        <v>2340</v>
+        <v>676094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>917</v>
       </c>
       <c r="N20" s="7">
-        <v>4975</v>
+        <v>996256</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>263</v>
+        <v>606</v>
       </c>
       <c r="D21" s="7">
-        <v>254835</v>
+        <v>572362</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5374,10 +5392,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>651</v>
       </c>
       <c r="I21" s="7">
-        <v>97759</v>
+        <v>771513</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5389,10 +5407,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>345</v>
+        <v>1257</v>
       </c>
       <c r="N21" s="7">
-        <v>352594</v>
+        <v>1343875</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5415,16 +5433,16 @@
         <v>1776</v>
       </c>
       <c r="D22" s="7">
-        <v>1878007</v>
+        <v>1878006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -5433,13 +5451,13 @@
         <v>1071986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>2803</v>
@@ -5448,13 +5466,13 @@
         <v>2949993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,49 +5481,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>1354</v>
       </c>
       <c r="D23" s="7">
-        <v>24517</v>
+        <v>1409540</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
-        <v>30</v>
+        <v>2260</v>
       </c>
       <c r="I23" s="7">
-        <v>31194</v>
+        <v>2416078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
-        <v>54</v>
+        <v>3614</v>
       </c>
       <c r="N23" s="7">
-        <v>55711</v>
+        <v>3825617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,10 +5532,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1800</v>
+        <v>3130</v>
       </c>
       <c r="D24" s="7">
-        <v>1902524</v>
+        <v>3287546</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5529,10 +5547,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>1057</v>
+        <v>3287</v>
       </c>
       <c r="I24" s="7">
-        <v>1103180</v>
+        <v>3488064</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5544,10 +5562,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2857</v>
+        <v>6417</v>
       </c>
       <c r="N24" s="7">
-        <v>3005704</v>
+        <v>6775610</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5561,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32543A88-6F9B-4456-8B41-CA577A0DE493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176C705C-7304-489F-9720-07500AEC987D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5707,13 +5725,13 @@
         <v>161216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5722,28 +5740,28 @@
         <v>112830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>274046</v>
+        <v>274045</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,49 +5770,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>36017</v>
+        <v>216463</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I5" s="7">
-        <v>47636</v>
+        <v>242127</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>83653</v>
+        <v>458591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>197233</v>
+        <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5818,10 +5836,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>160466</v>
+        <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5833,10 +5851,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>175</v>
+        <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>357699</v>
+        <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5862,13 +5880,13 @@
         <v>227391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -5877,13 +5895,13 @@
         <v>151872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -5892,13 +5910,13 @@
         <v>379263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,49 +5925,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7">
-        <v>45404</v>
+        <v>201005</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="I8" s="7">
-        <v>82701</v>
+        <v>345563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
-        <v>90</v>
+        <v>465</v>
       </c>
       <c r="N8" s="7">
-        <v>128105</v>
+        <v>546568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>272795</v>
+        <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5973,10 +5991,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>203</v>
+        <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>234573</v>
+        <v>497435</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5988,10 +6006,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>386</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>507368</v>
+        <v>925831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6014,31 +6032,31 @@
         <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>288622</v>
+        <v>288623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>160196</v>
+        <v>160197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -6047,13 +6065,13 @@
         <v>448820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,49 +6080,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>63123</v>
+        <v>268469</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>615</v>
       </c>
       <c r="I11" s="7">
-        <v>75524</v>
+        <v>421586</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
-        <v>164</v>
+        <v>890</v>
       </c>
       <c r="N11" s="7">
-        <v>138646</v>
+        <v>690056</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,10 +6131,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>351745</v>
+        <v>557092</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6128,10 +6146,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>335</v>
+        <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>235720</v>
+        <v>581783</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6143,10 +6161,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>663</v>
+        <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>587466</v>
+        <v>1138876</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6172,13 +6190,13 @@
         <v>353848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -6187,13 +6205,13 @@
         <v>204931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
@@ -6202,13 +6220,13 @@
         <v>558779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,49 +6235,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>326</v>
       </c>
       <c r="D14" s="7">
-        <v>106905</v>
+        <v>365676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
-        <v>132</v>
+        <v>816</v>
       </c>
       <c r="I14" s="7">
-        <v>89872</v>
+        <v>541460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>1142</v>
       </c>
       <c r="N14" s="7">
-        <v>196777</v>
+        <v>907136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,10 +6286,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>389</v>
+        <v>661</v>
       </c>
       <c r="D15" s="7">
-        <v>460753</v>
+        <v>719524</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6283,10 +6301,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>455</v>
+        <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>294803</v>
+        <v>746391</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6298,10 +6316,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>844</v>
+        <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>755556</v>
+        <v>1465915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6327,13 +6345,13 @@
         <v>279684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -6342,28 +6360,28 @@
         <v>144479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
       </c>
       <c r="N16" s="7">
-        <v>424164</v>
+        <v>424163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,49 +6390,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D17" s="7">
-        <v>63927</v>
+        <v>319396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
-        <v>98</v>
+        <v>759</v>
       </c>
       <c r="I17" s="7">
-        <v>60064</v>
+        <v>447970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
-        <v>165</v>
+        <v>1115</v>
       </c>
       <c r="N17" s="7">
-        <v>123990</v>
+        <v>767366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>373</v>
+        <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>343611</v>
+        <v>599080</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6438,10 +6456,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>337</v>
+        <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>204543</v>
+        <v>592449</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6453,10 +6471,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>710</v>
+        <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>548154</v>
+        <v>1191529</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6470,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6482,13 +6500,13 @@
         <v>307941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -6497,13 +6515,13 @@
         <v>223476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>659</v>
@@ -6512,13 +6530,13 @@
         <v>531417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,49 +6545,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>574</v>
       </c>
       <c r="D20" s="7">
-        <v>51027</v>
+        <v>388450</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
-        <v>94</v>
+        <v>1497</v>
       </c>
       <c r="I20" s="7">
-        <v>56539</v>
+        <v>800247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
-        <v>166</v>
+        <v>2071</v>
       </c>
       <c r="N20" s="7">
-        <v>107566</v>
+        <v>1188697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,10 +6596,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>524</v>
+        <v>1026</v>
       </c>
       <c r="D21" s="7">
-        <v>358968</v>
+        <v>696391</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6593,10 +6611,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>301</v>
+        <v>1704</v>
       </c>
       <c r="I21" s="7">
-        <v>280015</v>
+        <v>1023723</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6608,10 +6626,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>825</v>
+        <v>2730</v>
       </c>
       <c r="N21" s="7">
-        <v>638983</v>
+        <v>1720114</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6637,13 +6655,13 @@
         <v>1618703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>1206</v>
@@ -6652,13 +6670,13 @@
         <v>997784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>2794</v>
@@ -6667,13 +6685,13 @@
         <v>2616487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,49 +6700,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>292</v>
+        <v>1780</v>
       </c>
       <c r="D23" s="7">
-        <v>366403</v>
+        <v>1759459</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>485</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>517</v>
+        <v>4145</v>
       </c>
       <c r="I23" s="7">
-        <v>412336</v>
+        <v>2798954</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
-        <v>809</v>
+        <v>5925</v>
       </c>
       <c r="N23" s="7">
-        <v>778738</v>
+        <v>4558414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,10 +6751,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1880</v>
+        <v>3368</v>
       </c>
       <c r="D24" s="7">
-        <v>1985106</v>
+        <v>3378162</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6748,10 +6766,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>1723</v>
+        <v>5351</v>
       </c>
       <c r="I24" s="7">
-        <v>1410120</v>
+        <v>3796738</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -6763,10 +6781,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>3603</v>
+        <v>8719</v>
       </c>
       <c r="N24" s="7">
-        <v>3395225</v>
+        <v>7174901</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6780,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3758A48A-81AB-4706-859D-68515122F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2BB09B-0D6B-44A0-93ED-DB037A4DA0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88F5EF17-5603-483F-B1C6-7455806BE53F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7D03067E-0F0B-42B2-B425-FA37E91F98DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>65,5%</t>
@@ -191,7 +191,7 @@
     <t>52,55%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>59,92%</t>
@@ -248,7 +248,7 @@
     <t>58,45%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>58,38%</t>
@@ -305,7 +305,7 @@
     <t>61,08%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>44,3%</t>
@@ -362,309 +362,372 @@
     <t>72,57%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
     <t>68,95%</t>
   </si>
   <si>
@@ -731,52 +794,112 @@
     <t>67,68%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>56,12%</t>
@@ -1106,58 +1229,100 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>57,12%</t>
@@ -1205,334 +1370,412 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
   <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>59,11%</t>
   </si>
   <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C4E86-F9F2-49BB-B5B3-68AD5031B752}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AED46C4-6326-4796-87CB-93676CFB6BDC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2250,7 +2493,7 @@
         <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>679260</v>
+        <v>679259</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2352,7 +2595,7 @@
         <v>1282</v>
       </c>
       <c r="N9" s="7">
-        <v>1346950</v>
+        <v>1346949</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2837,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7">
-        <v>192479</v>
+        <v>122926</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2852,10 +3095,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>42561</v>
+        <v>27161</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2867,10 +3110,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="N19" s="7">
-        <v>235040</v>
+        <v>150086</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2888,10 +3131,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="D20" s="7">
-        <v>303948</v>
+        <v>165340</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2903,10 +3146,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>618</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>633156</v>
+        <v>315773</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2918,10 +3161,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>939</v>
+        <v>515</v>
       </c>
       <c r="N20" s="7">
-        <v>937104</v>
+        <v>481114</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2939,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>517</v>
+        <v>299</v>
       </c>
       <c r="D21" s="7">
-        <v>496427</v>
+        <v>288266</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2954,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>660</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>675717</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2969,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1177</v>
+        <v>670</v>
       </c>
       <c r="N21" s="7">
-        <v>1172144</v>
+        <v>631200</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2986,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1745</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>1776095</v>
+        <v>69554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>805</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>823855</v>
+        <v>15400</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>2550</v>
+        <v>83</v>
       </c>
       <c r="N22" s="7">
-        <v>2599950</v>
+        <v>84954</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1427</v>
+        <v>148</v>
       </c>
       <c r="D23" s="7">
-        <v>1456509</v>
+        <v>138608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2474</v>
+        <v>276</v>
       </c>
       <c r="I23" s="7">
-        <v>2536424</v>
+        <v>317383</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3901</v>
+        <v>424</v>
       </c>
       <c r="N23" s="7">
-        <v>3992932</v>
+        <v>455991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7">
+        <v>208162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>289</v>
+      </c>
+      <c r="I24" s="7">
+        <v>332783</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>507</v>
+      </c>
+      <c r="N24" s="7">
+        <v>540945</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1745</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1776095</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>805</v>
+      </c>
+      <c r="I25" s="7">
+        <v>823855</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2550</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2599950</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1427</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1456508</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2474</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2536424</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3901</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3992932</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3172</v>
       </c>
-      <c r="D24" s="7">
-        <v>3232604</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3232603</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3279</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3360279</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6451</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6592882</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3163,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB9BB36-1C1C-445A-931D-624640950F2F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D27714-A941-4AA8-B43B-0618A31AE7C9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3180,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3686,13 @@
         <v>257052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>161</v>
@@ -3302,13 +3701,13 @@
         <v>166446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>415</v>
@@ -3317,13 +3716,13 @@
         <v>423498</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3737,13 @@
         <v>183217</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -3353,13 +3752,13 @@
         <v>259816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>434</v>
@@ -3368,13 +3767,13 @@
         <v>443033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3841,13 @@
         <v>414722</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3457,13 +3856,13 @@
         <v>183193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>579</v>
@@ -3472,10 +3871,10 @@
         <v>597916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -3493,13 +3892,13 @@
         <v>238994</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -3508,13 +3907,13 @@
         <v>413862</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>615</v>
@@ -3523,13 +3922,13 @@
         <v>652856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3996,13 @@
         <v>389425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -3612,13 +4011,13 @@
         <v>200358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3627,13 +4026,13 @@
         <v>589784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +4047,13 @@
         <v>263090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>462</v>
@@ -3663,13 +4062,13 @@
         <v>488821</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>712</v>
@@ -3678,13 +4077,13 @@
         <v>751910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +4151,13 @@
         <v>353309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3767,13 +4166,13 @@
         <v>186650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3782,13 +4181,13 @@
         <v>539959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +4202,13 @@
         <v>227994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>362</v>
@@ -3818,13 +4217,13 @@
         <v>414449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>564</v>
@@ -3833,13 +4232,13 @@
         <v>642443</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +4306,13 @@
         <v>205679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3922,13 +4321,13 @@
         <v>94540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -3937,10 +4336,10 @@
         <v>300220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>77</v>
@@ -3958,13 +4357,13 @@
         <v>202803</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>314</v>
@@ -3973,13 +4372,13 @@
         <v>342748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -3988,13 +4387,13 @@
         <v>545550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="D19" s="7">
-        <v>217641</v>
+        <v>138446</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I19" s="7">
-        <v>63715</v>
+        <v>43813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="N19" s="7">
-        <v>281356</v>
+        <v>182259</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="D20" s="7">
-        <v>320650</v>
+        <v>156331</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>631</v>
+        <v>300</v>
       </c>
       <c r="I20" s="7">
-        <v>671542</v>
+        <v>303563</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>923</v>
+        <v>444</v>
       </c>
       <c r="N20" s="7">
-        <v>992192</v>
+        <v>459894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>486</v>
+        <v>270</v>
       </c>
       <c r="D21" s="7">
-        <v>538291</v>
+        <v>294777</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4173,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>687</v>
+        <v>338</v>
       </c>
       <c r="I21" s="7">
-        <v>735257</v>
+        <v>347376</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4188,10 +4587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1173</v>
+        <v>608</v>
       </c>
       <c r="N21" s="7">
-        <v>1273548</v>
+        <v>642153</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4205,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1730</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>1837828</v>
+        <v>79194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>822</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>894904</v>
+        <v>19903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>2552</v>
+        <v>86</v>
       </c>
       <c r="N22" s="7">
-        <v>2732732</v>
+        <v>99097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1338</v>
+        <v>148</v>
       </c>
       <c r="D23" s="7">
-        <v>1436748</v>
+        <v>164320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>2411</v>
+        <v>331</v>
       </c>
       <c r="I23" s="7">
-        <v>2591237</v>
+        <v>367978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>3749</v>
+        <v>479</v>
       </c>
       <c r="N23" s="7">
-        <v>4027984</v>
+        <v>532298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>216</v>
+      </c>
+      <c r="D24" s="7">
+        <v>243514</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387881</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>565</v>
+      </c>
+      <c r="N24" s="7">
+        <v>631395</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1730</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1837828</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>822</v>
+      </c>
+      <c r="I25" s="7">
+        <v>894904</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2552</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2732732</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1338</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1436748</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2411</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2591237</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3749</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4027984</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3068</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3274576</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3233</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3486141</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6301</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6760716</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4382,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E29B32-3709-49A6-98B5-2643038C9C2E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C58676-AA5E-4FAE-BB4D-7E729464C09E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4399,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +5061,13 @@
         <v>238128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -4521,13 +5076,13 @@
         <v>162059</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>391</v>
@@ -4536,13 +5091,13 @@
         <v>400187</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5112,13 @@
         <v>167605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>234</v>
@@ -4572,13 +5127,13 @@
         <v>229925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>389</v>
@@ -4587,13 +5142,13 @@
         <v>397530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5216,13 @@
         <v>344192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -4676,13 +5231,13 @@
         <v>217647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>554</v>
@@ -4691,13 +5246,13 @@
         <v>561839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5267,13 @@
         <v>233301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -4727,13 +5282,13 @@
         <v>338035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
@@ -4742,13 +5297,13 @@
         <v>571337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5371,13 @@
         <v>409034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -4831,13 +5386,13 @@
         <v>233469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>626</v>
@@ -4846,13 +5401,13 @@
         <v>642503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,28 +5422,28 @@
         <v>239779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>421</v>
       </c>
       <c r="I11" s="7">
-        <v>417117</v>
+        <v>417116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -4897,13 +5452,13 @@
         <v>656896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +5485,7 @@
         <v>655</v>
       </c>
       <c r="I12" s="7">
-        <v>650586</v>
+        <v>650585</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4971,13 +5526,13 @@
         <v>370178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -4986,13 +5541,13 @@
         <v>242127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -5001,13 +5556,13 @@
         <v>612305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5577,13 @@
         <v>257423</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -5037,13 +5592,13 @@
         <v>390061</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5052,13 +5607,13 @@
         <v>647484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5681,13 @@
         <v>264273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5141,13 +5696,13 @@
         <v>121266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -5156,13 +5711,13 @@
         <v>385540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,28 +5732,28 @@
         <v>191270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
       </c>
       <c r="I17" s="7">
-        <v>364846</v>
+        <v>364845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>489</v>
@@ -5207,13 +5762,13 @@
         <v>556115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5795,7 @@
         <v>424</v>
       </c>
       <c r="I18" s="7">
-        <v>486112</v>
+        <v>486111</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5275,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7">
-        <v>252200</v>
+        <v>163855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>95419</v>
+        <v>64800</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>347619</v>
+        <v>228655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="D20" s="7">
-        <v>320162</v>
+        <v>158717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
-        <v>571</v>
+        <v>294</v>
       </c>
       <c r="I20" s="7">
-        <v>676094</v>
+        <v>311238</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
-        <v>917</v>
+        <v>448</v>
       </c>
       <c r="N20" s="7">
-        <v>996256</v>
+        <v>469955</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>606</v>
+        <v>313</v>
       </c>
       <c r="D21" s="7">
-        <v>572362</v>
+        <v>322572</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5392,10 +5947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>651</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>771513</v>
+        <v>376038</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5407,10 +5962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1257</v>
+        <v>666</v>
       </c>
       <c r="N21" s="7">
-        <v>1343875</v>
+        <v>698610</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5424,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1776</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1878006</v>
+        <v>88345</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
-        <v>1027</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>1071986</v>
+        <v>30619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
-        <v>2803</v>
+        <v>122</v>
       </c>
       <c r="N22" s="7">
-        <v>2949993</v>
+        <v>118964</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +6036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1354</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1409540</v>
+        <v>161445</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
-        <v>2260</v>
+        <v>277</v>
       </c>
       <c r="I23" s="7">
-        <v>2416078</v>
+        <v>364856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
-        <v>3614</v>
+        <v>469</v>
       </c>
       <c r="N23" s="7">
-        <v>3825617</v>
+        <v>526301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>293</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249790</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>395475</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>591</v>
+      </c>
+      <c r="N24" s="7">
+        <v>645265</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1776</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1878006</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1027</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1071986</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2803</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2949993</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1354</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1409540</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2260</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2416078</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3614</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3825617</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3130</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3287546</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3287</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3488064</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6417</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6775610</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5601,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176C705C-7304-489F-9720-07500AEC987D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49F4DF3-B439-48F7-A5E2-D4A0C7079F86}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5618,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,46 +6433,46 @@
         <v>70</v>
       </c>
       <c r="D4" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,46 +6484,46 @@
         <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>216463</v>
+        <v>230084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
       </c>
       <c r="I5" s="7">
-        <v>242127</v>
+        <v>212349</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>458591</v>
+        <v>442434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5839,7 +6550,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5854,7 +6565,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5877,46 +6588,46 @@
         <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>379263</v>
+        <v>372388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,46 +6639,46 @@
         <v>147</v>
       </c>
       <c r="D8" s="7">
-        <v>201005</v>
+        <v>193412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
       </c>
       <c r="I8" s="7">
-        <v>345563</v>
+        <v>368343</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="M8" s="7">
         <v>465</v>
       </c>
       <c r="N8" s="7">
-        <v>546568</v>
+        <v>561755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5994,7 +6705,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497435</v>
+        <v>510596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6009,7 +6720,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925831</v>
+        <v>934143</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6032,46 +6743,46 @@
         <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>288623</v>
+        <v>282184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>160197</v>
+        <v>150814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
       </c>
       <c r="N10" s="7">
-        <v>448820</v>
+        <v>432997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,46 +6794,46 @@
         <v>275</v>
       </c>
       <c r="D11" s="7">
-        <v>268469</v>
+        <v>253990</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
       </c>
       <c r="I11" s="7">
-        <v>421586</v>
+        <v>390201</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>890</v>
       </c>
       <c r="N11" s="7">
-        <v>690056</v>
+        <v>644191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6845,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6149,7 +6860,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581783</v>
+        <v>541015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6164,7 +6875,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1138876</v>
+        <v>1077188</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6187,46 +6898,46 @@
         <v>335</v>
       </c>
       <c r="D13" s="7">
-        <v>353848</v>
+        <v>344267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
       </c>
       <c r="I13" s="7">
-        <v>204931</v>
+        <v>192392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
       </c>
       <c r="N13" s="7">
-        <v>558779</v>
+        <v>536659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,46 +6949,46 @@
         <v>326</v>
       </c>
       <c r="D14" s="7">
-        <v>365676</v>
+        <v>539232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>816</v>
       </c>
       <c r="I14" s="7">
-        <v>541460</v>
+        <v>519664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>1142</v>
       </c>
       <c r="N14" s="7">
-        <v>907136</v>
+        <v>1058897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +7000,7 @@
         <v>661</v>
       </c>
       <c r="D15" s="7">
-        <v>719524</v>
+        <v>883499</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6304,7 +7015,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746391</v>
+        <v>712056</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6319,7 +7030,7 @@
         <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>1465915</v>
+        <v>1595556</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6342,46 +7053,46 @@
         <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>279684</v>
+        <v>264194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>144479</v>
+        <v>134297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
       </c>
       <c r="N16" s="7">
-        <v>424163</v>
+        <v>398490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,46 +7104,46 @@
         <v>356</v>
       </c>
       <c r="D17" s="7">
-        <v>319396</v>
+        <v>296010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>759</v>
       </c>
       <c r="I17" s="7">
-        <v>447970</v>
+        <v>409548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>177</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>1115</v>
       </c>
       <c r="N17" s="7">
-        <v>767366</v>
+        <v>705559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +7155,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6459,7 +7170,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592449</v>
+        <v>543845</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6474,7 +7185,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191529</v>
+        <v>1104049</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6494,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7">
-        <v>307941</v>
+        <v>189996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="I19" s="7">
-        <v>223476</v>
+        <v>280153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
-        <v>659</v>
+        <v>440</v>
       </c>
       <c r="N19" s="7">
-        <v>531417</v>
+        <v>470149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +7256,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>574</v>
+        <v>281</v>
       </c>
       <c r="D20" s="7">
-        <v>388450</v>
+        <v>177293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
-        <v>1497</v>
+        <v>674</v>
       </c>
       <c r="I20" s="7">
-        <v>800247</v>
+        <v>327619</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
-        <v>2071</v>
+        <v>955</v>
       </c>
       <c r="N20" s="7">
-        <v>1188697</v>
+        <v>504912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696391</v>
+        <v>367289</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6611,10 +7322,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1023723</v>
+        <v>607772</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6626,10 +7337,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2730</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1720114</v>
+        <v>975061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6643,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1588</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>1618703</v>
+        <v>99624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
-        <v>1206</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>997784</v>
+        <v>27433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
-        <v>2794</v>
+        <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>2616487</v>
+        <v>127058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +7411,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1780</v>
+        <v>293</v>
       </c>
       <c r="D23" s="7">
-        <v>1759459</v>
+        <v>182724</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>556</v>
       </c>
       <c r="H23" s="7">
-        <v>4145</v>
+        <v>823</v>
       </c>
       <c r="I23" s="7">
-        <v>2798954</v>
+        <v>396430</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="M23" s="7">
-        <v>5925</v>
+        <v>1116</v>
       </c>
       <c r="N23" s="7">
-        <v>4558414</v>
+        <v>579153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282348</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423863</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706211</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1588</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1580302</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1206</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1028192</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2794</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2608494</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1780</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1872746</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4145</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2624154</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5925</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4496901</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3378162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3453048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5351</v>
       </c>
-      <c r="I24" s="7">
-        <v>3796738</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3652346</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8719</v>
       </c>
-      <c r="N24" s="7">
-        <v>7174901</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7105395</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
